--- a/lib/seeds/StaffNamesMaster.xlsx
+++ b/lib/seeds/StaffNamesMaster.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="21015" windowHeight="8205"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="21012" windowHeight="8208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,620 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="202">
+  <si>
+    <t>Jae</t>
+  </si>
+  <si>
+    <t>Cotter</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Hereford</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Bohman</t>
+  </si>
+  <si>
+    <t>Anjanette</t>
+  </si>
+  <si>
+    <t>Hilderbrand</t>
+  </si>
+  <si>
+    <t>Ronda</t>
+  </si>
+  <si>
+    <t>Totman</t>
+  </si>
+  <si>
+    <t>Nena</t>
+  </si>
+  <si>
+    <t>Lukach</t>
+  </si>
+  <si>
+    <t>Reiko</t>
+  </si>
+  <si>
+    <t>Mertens</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Dumire</t>
+  </si>
+  <si>
+    <t>Horacio</t>
+  </si>
+  <si>
+    <t>Traub</t>
+  </si>
+  <si>
+    <t>Jina</t>
+  </si>
+  <si>
+    <t>Coon</t>
+  </si>
+  <si>
+    <t>Denna</t>
+  </si>
+  <si>
+    <t>Lawley</t>
+  </si>
+  <si>
+    <t>Theda</t>
+  </si>
+  <si>
+    <t>Copen</t>
+  </si>
+  <si>
+    <t>Leota</t>
+  </si>
+  <si>
+    <t>Difiore</t>
+  </si>
+  <si>
+    <t>Lauran</t>
+  </si>
+  <si>
+    <t>Cottone</t>
+  </si>
+  <si>
+    <t>Reyes</t>
+  </si>
+  <si>
+    <t>Corney</t>
+  </si>
+  <si>
+    <t>Cherly</t>
+  </si>
+  <si>
+    <t>Mcgarry</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Aaronson</t>
+  </si>
+  <si>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Tseng</t>
+  </si>
+  <si>
+    <t>Annamae</t>
+  </si>
+  <si>
+    <t>Steiger</t>
+  </si>
+  <si>
+    <t>Zena</t>
+  </si>
+  <si>
+    <t>Holliman</t>
+  </si>
+  <si>
+    <t>Tabitha</t>
+  </si>
+  <si>
+    <t>Limon</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>Campisi</t>
+  </si>
+  <si>
+    <t>Ludie</t>
+  </si>
+  <si>
+    <t>Dominick</t>
+  </si>
+  <si>
+    <t>Eleanora</t>
+  </si>
+  <si>
+    <t>Mosbey</t>
+  </si>
+  <si>
+    <t>Gertrude</t>
+  </si>
+  <si>
+    <t>Pesina</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Jerez</t>
+  </si>
+  <si>
+    <t>Venessa</t>
+  </si>
+  <si>
+    <t>Siggers</t>
+  </si>
+  <si>
+    <t>Maryann</t>
+  </si>
+  <si>
+    <t>Cappelli</t>
+  </si>
+  <si>
+    <t>Eneida</t>
+  </si>
+  <si>
+    <t>Brathwaite</t>
+  </si>
+  <si>
+    <t>Rachelle</t>
+  </si>
+  <si>
+    <t>Palm</t>
+  </si>
+  <si>
+    <t>Annabell</t>
+  </si>
+  <si>
+    <t>Makela</t>
+  </si>
+  <si>
+    <t>Aracely</t>
+  </si>
+  <si>
+    <t>Olivarez</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Lopinto</t>
+  </si>
+  <si>
+    <t>Johnny</t>
+  </si>
+  <si>
+    <t>Solares</t>
+  </si>
+  <si>
+    <t>Patty</t>
+  </si>
+  <si>
+    <t>Cape</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Fugate</t>
+  </si>
+  <si>
+    <t>Caren</t>
+  </si>
+  <si>
+    <t>Climer</t>
+  </si>
+  <si>
+    <t>Inell</t>
+  </si>
+  <si>
+    <t>Wiste</t>
+  </si>
+  <si>
+    <t>Hiedi</t>
+  </si>
+  <si>
+    <t>Giroux</t>
+  </si>
+  <si>
+    <t>Lavenia</t>
+  </si>
+  <si>
+    <t>Dibenedetto</t>
+  </si>
+  <si>
+    <t>Stephaine</t>
+  </si>
+  <si>
+    <t>Bence</t>
+  </si>
+  <si>
+    <t>Sparkle</t>
+  </si>
+  <si>
+    <t>Baros</t>
+  </si>
+  <si>
+    <t>Moriah</t>
+  </si>
+  <si>
+    <t>Gustin</t>
+  </si>
+  <si>
+    <t>Whitley</t>
+  </si>
+  <si>
+    <t>Fleury</t>
+  </si>
+  <si>
+    <t>Melonie</t>
+  </si>
+  <si>
+    <t>Gerardi</t>
+  </si>
+  <si>
+    <t>Epifania</t>
+  </si>
+  <si>
+    <t>Riddles</t>
+  </si>
+  <si>
+    <t>Taina</t>
+  </si>
+  <si>
+    <t>Tillery</t>
+  </si>
+  <si>
+    <t>Indira</t>
+  </si>
+  <si>
+    <t>Fontanez</t>
+  </si>
+  <si>
+    <t>Tamisha</t>
+  </si>
+  <si>
+    <t>Pafford</t>
+  </si>
+  <si>
+    <t>Rachael</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Hultman</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Noah</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Pridmore</t>
+  </si>
+  <si>
+    <t>Sueann</t>
+  </si>
+  <si>
+    <t>Boothe</t>
+  </si>
+  <si>
+    <t>Corine</t>
+  </si>
+  <si>
+    <t>Leight</t>
+  </si>
+  <si>
+    <t>Veronique</t>
+  </si>
+  <si>
+    <t>Wenthold</t>
+  </si>
+  <si>
+    <t>Jeanie</t>
+  </si>
+  <si>
+    <t>Callis</t>
+  </si>
+  <si>
+    <t>Madelyn</t>
+  </si>
+  <si>
+    <t>Weiner</t>
+  </si>
+  <si>
+    <t>Roseline</t>
+  </si>
+  <si>
+    <t>Bratcher</t>
+  </si>
+  <si>
+    <t>Saturnina</t>
+  </si>
+  <si>
+    <t>Mohl</t>
+  </si>
+  <si>
+    <t>Francine</t>
+  </si>
+  <si>
+    <t>Spengler</t>
+  </si>
+  <si>
+    <t>Wanita</t>
+  </si>
+  <si>
+    <t>Lorenzana</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Heacock</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Hearn</t>
+  </si>
+  <si>
+    <t>Evangeline</t>
+  </si>
+  <si>
+    <t>Lichtenberger</t>
+  </si>
+  <si>
+    <t>Agnes</t>
+  </si>
+  <si>
+    <t>Jasik</t>
+  </si>
+  <si>
+    <t>Aurore</t>
+  </si>
+  <si>
+    <t>Mifflin</t>
+  </si>
+  <si>
+    <t>Maris</t>
+  </si>
+  <si>
+    <t>Lea</t>
+  </si>
+  <si>
+    <t>Maurine</t>
+  </si>
+  <si>
+    <t>Rendon</t>
+  </si>
+  <si>
+    <t>Tawanna</t>
+  </si>
+  <si>
+    <t>Ruggles</t>
+  </si>
+  <si>
+    <t>Antonietta</t>
+  </si>
+  <si>
+    <t>Landi</t>
+  </si>
+  <si>
+    <t>Melania</t>
+  </si>
+  <si>
+    <t>Crotty</t>
+  </si>
+  <si>
+    <t>Shea</t>
+  </si>
+  <si>
+    <t>Perreault</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Donatelli</t>
+  </si>
+  <si>
+    <t>Yahaira</t>
+  </si>
+  <si>
+    <t>Rylander</t>
+  </si>
+  <si>
+    <t>Jennell</t>
+  </si>
+  <si>
+    <t>Beachy</t>
+  </si>
+  <si>
+    <t>Keenan</t>
+  </si>
+  <si>
+    <t>Bickers</t>
+  </si>
+  <si>
+    <t>Rosia</t>
+  </si>
+  <si>
+    <t>Nordquist</t>
+  </si>
+  <si>
+    <t>Aleida</t>
+  </si>
+  <si>
+    <t>Trudeau</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Strout</t>
+  </si>
+  <si>
+    <t>Blanche</t>
+  </si>
+  <si>
+    <t>Meekins</t>
+  </si>
+  <si>
+    <t>Vita</t>
+  </si>
+  <si>
+    <t>Tanner</t>
+  </si>
+  <si>
+    <t>Phylis</t>
+  </si>
+  <si>
+    <t>Shreve</t>
+  </si>
+  <si>
+    <t>Calandra</t>
+  </si>
+  <si>
+    <t>Larocco</t>
+  </si>
+  <si>
+    <t>Britney</t>
+  </si>
+  <si>
+    <t>Wax</t>
+  </si>
+  <si>
+    <t>Arianne</t>
+  </si>
+  <si>
+    <t>Ginther</t>
+  </si>
+  <si>
+    <t>Foree</t>
+  </si>
+  <si>
+    <t>Staci</t>
+  </si>
+  <si>
+    <t>Parnell</t>
+  </si>
+  <si>
+    <t>Celsa</t>
+  </si>
+  <si>
+    <t>Lacayo</t>
+  </si>
+  <si>
+    <t>Catharine</t>
+  </si>
+  <si>
+    <t>Bump</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Duren</t>
+  </si>
+  <si>
+    <t>Kizzy</t>
+  </si>
+  <si>
+    <t>Yocum</t>
+  </si>
+  <si>
+    <t>Cristy</t>
+  </si>
+  <si>
+    <t>Paluch</t>
+  </si>
+  <si>
+    <t>Damon</t>
+  </si>
+  <si>
+    <t>Pizer</t>
+  </si>
+  <si>
+    <t>Ozella</t>
+  </si>
+  <si>
+    <t>Wand</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Steffens</t>
+  </si>
+  <si>
+    <t>Ciera</t>
+  </si>
+  <si>
+    <t>Dotts</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>Griffieth</t>
+  </si>
+  <si>
+    <t>Mee</t>
+  </si>
+  <si>
+    <t>Fujii</t>
+  </si>
+  <si>
+    <t>Conchita</t>
+  </si>
+  <si>
+    <t>Seavey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +665,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Ofis">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +714,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Ofis">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -132,6 +748,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -166,9 +783,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Ofis">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,36 +959,1147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" activeCellId="1" sqref="B2 A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" t="s">
+        <v>150</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" t="s">
+        <v>152</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" t="s">
+        <v>162</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>167</v>
+      </c>
+      <c r="B85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
